--- a/UAL/output/test/Bekir Tanriover_2023.xlsx
+++ b/UAL/output/test/Bekir Tanriover_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -969,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ambreen Azhar, Bekir Tanrıöver, Ahmet B. Gungor, Miklós Molnár, Gaurav Gupta</t>
+          <t>Marek Rychlik, Bekir Tanrıöver, Yuxing Han</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Department of Internal Medicine, Division of Nephrology, Virginia Commonwealth University, 1101 East Marshall Street, PO Box 980160, Richmond, VA, 23298, USA; Division of Nephrology, College of Medicine, University of Arizona, Tucson, AZ, USA; Division of Nephrology, College of Medicine, University of Arizona, Tucson, AZ, USA; Department of Internal Medicine, Division of Nephrology &amp; Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, UT, USA; Department of Internal Medicine, Division of Nephrology, Virginia Commonwealth University, 1101 East Marshall Street, PO Box 980160, Richmond, VA, 23298, USA</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386574113</t>
+          <t>https://openalex.org/W4386348049</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Virologic Studies in COVID-Positive Donors</t>
+          <t>Large-scale data extraction from the UNOS organ donor documents</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Current Transplantation Reports</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40472-023-00411-7</t>
+          <t>https://arxiv.org/abs/2308.15752</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40472-023-00411-7</t>
+          <t>https://doi.org/10.48550/arxiv.2308.15752</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1066,32 +1066,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386348049</t>
+          <t>https://openalex.org/W4386396309</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Large-scale data extraction from the UNOS organ donor documents</t>
+          <t>Large-Scale Data Extraction from the UNOS Organ Donor Documents</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2308.15752</t>
+          <t>https://doi.org/10.20944/preprints202308.2121.v1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2308.15752</t>
+          <t>https://doi.org/10.20944/preprints202308.2121.v1</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,57 +1143,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Marek Rychlik, Bekir Tanrıöver, Yuxing Han</t>
+          <t>Ambreen Azhar, Bekir Tanrıöver, Ahmet B. Gungor, Miklós Molnár, Gaurav Gupta</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; </t>
+          <t>Department of Internal Medicine, Division of Nephrology, Virginia Commonwealth University, 1101 East Marshall Street, PO Box 980160, Richmond, VA, 23298, USA; Division of Nephrology, College of Medicine, University of Arizona, Tucson, AZ, USA; Division of Nephrology, College of Medicine, University of Arizona, Tucson, AZ, USA; Department of Internal Medicine, Division of Nephrology &amp; Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, UT, USA; Department of Internal Medicine, Division of Nephrology, Virginia Commonwealth University, 1101 East Marshall Street, PO Box 980160, Richmond, VA, 23298, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386396309</t>
+          <t>https://openalex.org/W4386574113</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Large-Scale Data Extraction from the UNOS Organ Donor Documents</t>
+          <t>Virologic Studies in COVID-Positive Donors</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Current Transplantation Reports</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Springer Science+Business Media</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s40472-023-00411-7</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20944/preprints202308.2121.v1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202308.2121.v1</t>
+          <t>https://doi.org/10.1007/s40472-023-00411-7</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
